--- a/biology/Zoologie/Herpestes_smithii/Herpestes_smithii.xlsx
+++ b/biology/Zoologie/Herpestes_smithii/Herpestes_smithii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mangouste de Smith
 Herpestes smithii, la Mangouste de Smith, est une espèce de mammifères carnivores de la famille des Herpestidae (les mangoustes).
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette mangouste se rencontre en Inde, au Népal et au Sri Lanka[1]. Elle est essentiellement présente dans les zones boisées et de préférence isolées. Elle a parfois été observée dans des rizières et des champs en terrain relativement ouvert.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette mangouste se rencontre en Inde, au Népal et au Sri Lanka. Elle est essentiellement présente dans les zones boisées et de préférence isolées. Elle a parfois été observée dans des rizières et des champs en terrain relativement ouvert.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herpestes smithii mesure environ 40 à 45 cm de longueur et se nourrit principalement d'oiseaux, de reptiles et de petits mammifères[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herpestes smithii mesure environ 40 à 45 cm de longueur et se nourrit principalement d'oiseaux, de reptiles et de petits mammifères.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 avril 2024)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 avril 2024) :
 Herpestes smithii canens Thomas, 1923
 Herpestes smithii rusanus Thomas, 1923
 Herpestes smithii smithii Gray, 1837
@@ -609,11 +627,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Herpestes smithii Gray, 1837[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Mangouste de Smith[4].
-Herpestes smithii a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Herpestes smithii Gray, 1837.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Mangouste de Smith.
+Herpestes smithii a pour synonymes :
 Herpestes ellioti Blyth, 1851
 Herpestes rubiginosus Kelaart, 1852
 Herpestes torquatus Jerdon, 1867
